--- a/RUDN/Importance/Varible_muatal_reg_in_Micronesia.xlsx
+++ b/RUDN/Importance/Varible_muatal_reg_in_Micronesia.xlsx
@@ -100,6 +100,9 @@
     <t>Population ages 55-59, female (% of female population)</t>
   </si>
   <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
     <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
@@ -115,9 +118,6 @@
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
     <t>Male population 45-49</t>
   </si>
   <si>
@@ -148,60 +148,60 @@
     <t>Population ages 50-54, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities (% of population with access)</t>
   </si>
   <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
     <t>Population ages 0-14, male</t>
   </si>
   <si>
@@ -211,21 +211,24 @@
     <t>Population ages 00-14, total</t>
   </si>
   <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
     <t>Male population 20-24</t>
   </si>
   <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
     <t>Population ages 50-54, female (% of female population)</t>
   </si>
   <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
     <t>Population ages 65-69, male (% of male population)</t>
   </si>
   <si>
@@ -235,42 +238,39 @@
     <t>Female population 70-74</t>
   </si>
   <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 12, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
     <t>Improved water source, rural (% of rural population with access)</t>
   </si>
   <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
     <t>Age dependency ratio, old</t>
   </si>
   <si>
@@ -322,15 +322,15 @@
     <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 18, male, interpolated</t>
   </si>
   <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
@@ -343,12 +343,12 @@
     <t>Fixed telephone subscriptions (per 100 people)</t>
   </si>
   <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
     <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
     <t>Population ages 45-49, female (% of female population)</t>
   </si>
   <si>
@@ -439,12 +439,12 @@
     <t>Improved water source, urban (% of urban population with access)</t>
   </si>
   <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
     <t>Net official development assistance received (current US$)</t>
   </si>
   <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
     <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
@@ -469,21 +469,21 @@
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
     <t>Age population, age 17, female, interpolated</t>
   </si>
   <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Population, male</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
     <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
@@ -499,36 +499,36 @@
     <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
   <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Age population, age 13, male, interpolated</t>
   </si>
   <si>
     <t>Female population 25-29</t>
   </si>
   <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
     <t>Primary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
     <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
@@ -544,285 +544,285 @@
     <t>Primary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
     <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
     <t>GNI, Atlas method (current US$)</t>
   </si>
   <si>
     <t>Age population, age 06, male, interpolated</t>
   </si>
   <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
+    <t>Urban population (% of total)</t>
   </si>
   <si>
     <t>Rural population (% of total population)</t>
   </si>
   <si>
-    <t>Urban population (% of total)</t>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
     <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
     <t>People practicing open defecation, rural (% of rural population)</t>
   </si>
   <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
     <t>Health expenditure, total (current US$)</t>
   </si>
   <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
     <t>Health expenditure per capita, PPP</t>
   </si>
   <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
     <t>CO2 emissions (kt)</t>
   </si>
   <si>
@@ -832,45 +832,45 @@
     <t>Nurses and midwives (per 1,000 people)</t>
   </si>
   <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
   </si>
   <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
     <t>Female population 00-04</t>
   </si>
   <si>
@@ -907,12 +907,12 @@
     <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 04, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
@@ -940,10 +940,10 @@
     <t>Population ages 30-34, female (% of female population)</t>
   </si>
   <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
     <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
   </si>
   <si>
     <t>Region_code</t>
@@ -1475,7 +1475,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.353275027570356</v>
+        <v>1.3468647711601</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1547,7 +1547,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.264033713329042</v>
+        <v>1.283583607878937</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1555,7 +1555,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.255150929446258</v>
+        <v>1.264033713329042</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1563,7 +1563,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.255028829324158</v>
+        <v>1.255150929446258</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1571,7 +1571,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.250716475011804</v>
+        <v>1.255028829324158</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1579,7 +1579,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.246388858184187</v>
+        <v>1.250716475011804</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1587,7 +1587,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.245122069417399</v>
+        <v>1.246388858184187</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1675,7 +1675,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.201166025461355</v>
+        <v>1.197923434718764</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1683,7 +1683,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.197923434718764</v>
+        <v>1.195983707779037</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1691,7 +1691,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.195983707779037</v>
+        <v>1.193859443154772</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1699,7 +1699,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.193859443154772</v>
+        <v>1.193071342366671</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1707,7 +1707,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.193071342366671</v>
+        <v>1.185562184857514</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1715,7 +1715,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.188345512640842</v>
+        <v>1.184513233808563</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1723,7 +1723,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.185562184857514</v>
+        <v>1.177448076743406</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1731,7 +1731,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.184513233808563</v>
+        <v>1.17436366115899</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1747,7 +1747,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.17436366115899</v>
+        <v>1.167566291861621</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1755,7 +1755,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.167566291861621</v>
+        <v>1.164993864289194</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1763,7 +1763,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.164993864289194</v>
+        <v>1.16441250120783</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1771,7 +1771,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.16441250120783</v>
+        <v>1.163377425172754</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1779,7 +1779,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.163377425172754</v>
+        <v>1.162576836872166</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1787,7 +1787,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.162576836872166</v>
+        <v>1.161998248793577</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1795,7 +1795,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.161998248793577</v>
+        <v>1.159853171648501</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1803,7 +1803,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.159853171648501</v>
+        <v>1.158758433053762</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1811,7 +1811,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.158758433053762</v>
+        <v>1.15180705110238</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1843,7 +1843,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.137940362235691</v>
+        <v>1.13737981167514</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1851,7 +1851,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.13737981167514</v>
+        <v>1.133071619866949</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1859,7 +1859,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.133071619866949</v>
+        <v>1.125652649947979</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1867,7 +1867,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.125652649947979</v>
+        <v>1.125119849415178</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1883,7 +1883,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.122500246795576</v>
+        <v>1.123135722431051</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1891,7 +1891,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.120928207723537</v>
+        <v>1.122500246795576</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1899,7 +1899,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.118078279873609</v>
+        <v>1.120928207723537</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1907,7 +1907,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1.117424766720096</v>
+        <v>1.118078279873609</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1915,7 +1915,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.114993864289193</v>
+        <v>1.111870598665927</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1923,7 +1923,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1.111870598665927</v>
+        <v>1.111765148560478</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1931,7 +1931,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.111765148560478</v>
+        <v>1.111734623529952</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1939,7 +1939,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1.111734623529952</v>
+        <v>1.108583607878937</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1947,7 +1947,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.110315209610538</v>
+        <v>1.105549142344471</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1955,7 +1955,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.108583607878937</v>
+        <v>1.104604253899582</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1963,7 +1963,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1.105549142344471</v>
+        <v>1.101857001152331</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1971,7 +1971,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1.101857001152331</v>
+        <v>1.091157977953307</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1979,7 +1979,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1.091157977953307</v>
+        <v>1.090361552156881</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1987,7 +1987,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1.090361552156881</v>
+        <v>1.089739951535281</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1995,7 +1995,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1.089739951535281</v>
+        <v>1.084865659160988</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2139,7 +2139,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.030815542610872</v>
+        <v>1.027432814228144</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2147,7 +2147,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.027432814228144</v>
+        <v>1.026049475344804</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2155,7 +2155,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.026049475344804</v>
+        <v>1.023123234918564</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2195,7 +2195,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1.005493642288971</v>
+        <v>1.001118850414179</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2203,7 +2203,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1.001118850414179</v>
+        <v>0.9978013345966636</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2531,7 +2531,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.8546236789190074</v>
+        <v>0.8537384530337813</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2555,7 +2555,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.8482439475392758</v>
+        <v>0.8439635057588346</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2563,7 +2563,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.8439635057588346</v>
+        <v>0.8427189170142455</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2611,7 +2611,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.8121213094935618</v>
+        <v>0.7999699992653286</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2619,7 +2619,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.7999699992653286</v>
+        <v>0.7881928874882167</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2627,7 +2627,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.7887354005307295</v>
+        <v>0.7823251441204732</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2635,7 +2635,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.7881928874882167</v>
+        <v>0.779142215937545</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2643,7 +2643,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.779142215937545</v>
+        <v>0.7790006907960197</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2651,7 +2651,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.7790006907960197</v>
+        <v>0.7736597710320234</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2659,7 +2659,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.7677314045267336</v>
+        <v>0.7732259100212386</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2675,7 +2675,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.7552438920392212</v>
+        <v>0.7640443864166384</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2683,7 +2683,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.7544290018012538</v>
+        <v>0.7552438920392212</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2763,7 +2763,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.720097094392423</v>
+        <v>0.7194491312444604</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2771,7 +2771,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.7194491312444604</v>
+        <v>0.7162509405462696</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3475,7 +3475,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.6804894797848087</v>
+        <v>0.6615917108870397</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3611,7 +3611,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.6235533603486898</v>
+        <v>0.6180588548541839</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3651,7 +3651,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.5777348626071142</v>
+        <v>0.5649143497866014</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3699,7 +3699,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.4815504914227433</v>
+        <v>0.4822210815164096</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3707,7 +3707,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.4767265760219046</v>
+        <v>0.4788032386754906</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3787,7 +3787,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.1974641717595005</v>
+        <v>0.1254672584164331</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -3795,7 +3795,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.1254672584164331</v>
+        <v>0.1235797228750513</v>
       </c>
     </row>
     <row r="312" spans="1:2">
